--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H2">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>1915.358598916</v>
+        <v>131.337137676458</v>
       </c>
       <c r="R2">
-        <v>17238.227390244</v>
+        <v>1182.034239088122</v>
       </c>
       <c r="S2">
-        <v>0.01114940352166862</v>
+        <v>0.001041344062643856</v>
       </c>
       <c r="T2">
-        <v>0.01114940352166862</v>
+        <v>0.001041344062643856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H3">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>14690.94820157677</v>
+        <v>12408.05660916727</v>
       </c>
       <c r="R3">
-        <v>132218.5338141909</v>
+        <v>111672.5094825054</v>
       </c>
       <c r="S3">
-        <v>0.08551678505947212</v>
+        <v>0.09838082592248601</v>
       </c>
       <c r="T3">
-        <v>0.08551678505947211</v>
+        <v>0.09838082592248601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H4">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>2442.681664430811</v>
+        <v>1988.131507073894</v>
       </c>
       <c r="R4">
-        <v>21984.1349798773</v>
+        <v>17893.18356366505</v>
       </c>
       <c r="S4">
-        <v>0.01421897892495621</v>
+        <v>0.0157634693223384</v>
       </c>
       <c r="T4">
-        <v>0.01421897892495621</v>
+        <v>0.01576346932233841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H5">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>9003.181943121877</v>
+        <v>5603.797846910312</v>
       </c>
       <c r="R5">
-        <v>81028.63748809688</v>
+        <v>50434.18062219281</v>
       </c>
       <c r="S5">
-        <v>0.05240799739520142</v>
+        <v>0.04443131409268165</v>
       </c>
       <c r="T5">
-        <v>0.05240799739520142</v>
+        <v>0.04443131409268165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>4215.8182903543</v>
+        <v>342.2672901347553</v>
       </c>
       <c r="R6">
-        <v>37942.36461318871</v>
+        <v>3080.405611212798</v>
       </c>
       <c r="S6">
-        <v>0.02454050083352178</v>
+        <v>0.002713764109105576</v>
       </c>
       <c r="T6">
-        <v>0.02454050083352179</v>
+        <v>0.002713764109105576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>32335.65148892055</v>
@@ -883,10 +883,10 @@
         <v>291020.8634002849</v>
       </c>
       <c r="S7">
-        <v>0.1882275344105582</v>
+        <v>0.2563824618491296</v>
       </c>
       <c r="T7">
-        <v>0.1882275344105582</v>
+        <v>0.2563824618491296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>5376.487747124017</v>
+        <v>5181.11172054028</v>
       </c>
       <c r="R8">
-        <v>48388.38972411615</v>
+        <v>46630.00548486252</v>
       </c>
       <c r="S8">
-        <v>0.03129681901651129</v>
+        <v>0.04107992623815356</v>
       </c>
       <c r="T8">
-        <v>0.0312968190165113</v>
+        <v>0.04107992623815356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>19816.53938258972</v>
+        <v>14603.61278962734</v>
       </c>
       <c r="R9">
-        <v>178348.8544433074</v>
+        <v>131432.5151066461</v>
       </c>
       <c r="S9">
-        <v>0.1153531219190878</v>
+        <v>0.1157889210977849</v>
       </c>
       <c r="T9">
-        <v>0.1153531219190879</v>
+        <v>0.1157889210977849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H10">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>2142.122553194592</v>
+        <v>170.5590503134661</v>
       </c>
       <c r="R10">
-        <v>19279.10297875133</v>
+        <v>1535.031452821195</v>
       </c>
       <c r="S10">
-        <v>0.01246940847105622</v>
+        <v>0.001352326215694124</v>
       </c>
       <c r="T10">
-        <v>0.01246940847105622</v>
+        <v>0.001352326215694124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H11">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>16430.24522312505</v>
+        <v>16113.54099027728</v>
       </c>
       <c r="R11">
-        <v>147872.2070081255</v>
+        <v>145021.8689124955</v>
       </c>
       <c r="S11">
-        <v>0.09564132484447804</v>
+        <v>0.127760818723868</v>
       </c>
       <c r="T11">
-        <v>0.09564132484447804</v>
+        <v>0.127760818723868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H12">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>2731.876676572991</v>
+        <v>2581.857863996876</v>
       </c>
       <c r="R12">
-        <v>24586.89008915692</v>
+        <v>23236.72077597188</v>
       </c>
       <c r="S12">
-        <v>0.01590239835808577</v>
+        <v>0.02047099856772212</v>
       </c>
       <c r="T12">
-        <v>0.01590239835808578</v>
+        <v>0.02047099856772212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H13">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>10069.09050962601</v>
+        <v>7277.290002102663</v>
       </c>
       <c r="R13">
-        <v>90621.81458663412</v>
+        <v>65495.61001892397</v>
       </c>
       <c r="S13">
-        <v>0.05861270743325062</v>
+        <v>0.05770007531681938</v>
       </c>
       <c r="T13">
-        <v>0.05861270743325064</v>
+        <v>0.05770007531681938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H14">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>3456.270500488496</v>
+        <v>178.6635141134437</v>
       </c>
       <c r="R14">
-        <v>31106.43450439646</v>
+        <v>1607.971627020993</v>
       </c>
       <c r="S14">
-        <v>0.02011913304996513</v>
+        <v>0.001416584775065267</v>
       </c>
       <c r="T14">
-        <v>0.02011913304996513</v>
+        <v>0.001416584775065267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H15">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>26509.86135027194</v>
+        <v>16879.20900616471</v>
       </c>
       <c r="R15">
-        <v>238588.7521524474</v>
+        <v>151912.8810554824</v>
       </c>
       <c r="S15">
-        <v>0.1543153024529958</v>
+        <v>0.133831636593105</v>
       </c>
       <c r="T15">
-        <v>0.1543153024529958</v>
+        <v>0.133831636593105</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H16">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>4407.826598963993</v>
+        <v>2704.540146508378</v>
       </c>
       <c r="R16">
-        <v>39670.43939067594</v>
+        <v>24340.8613185754</v>
       </c>
       <c r="S16">
-        <v>0.02565819133461861</v>
+        <v>0.02144372013562826</v>
       </c>
       <c r="T16">
-        <v>0.02565819133461861</v>
+        <v>0.02144372013562827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H17">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>16246.26959053714</v>
+        <v>7623.085392470894</v>
       </c>
       <c r="R17">
-        <v>146216.4263148342</v>
+        <v>68607.76853223806</v>
       </c>
       <c r="S17">
-        <v>0.09457039297457241</v>
+        <v>0.06044181297777435</v>
       </c>
       <c r="T17">
-        <v>0.09457039297457241</v>
+        <v>0.06044181297777435</v>
       </c>
     </row>
   </sheetData>
